--- a/DonnesTOTALcsv.xlsx
+++ b/DonnesTOTALcsv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bm09131x\Documents\GitHub\ProjetSAE1.05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boyem\OneDrive\Documents\GitHub\ProjetSAE1.05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D74B59E-18D9-4390-B16E-723141B301A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA823FA-1A8F-443D-872F-B304597BD784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnes" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -723,48 +723,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -782,7 +782,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -889,6 +889,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -909,6 +914,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -929,6 +939,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -949,6 +964,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -969,6 +989,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -989,6 +1014,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1011,6 +1041,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1033,6 +1068,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1055,6 +1095,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1077,6 +1122,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1099,6 +1149,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -1121,6 +1176,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -1144,6 +1204,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -1167,6 +1232,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -1190,6 +1260,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -1213,6 +1288,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -1236,6 +1316,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -1259,6 +1344,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -1281,6 +1371,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
@@ -1303,6 +1398,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
@@ -1325,6 +1425,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="21"/>
@@ -1347,6 +1452,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="22"/>
@@ -1369,6 +1479,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="23"/>
@@ -1391,6 +1506,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="24"/>
@@ -1414,6 +1534,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="25"/>
@@ -1437,6 +1562,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="26"/>
@@ -1460,6 +1590,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="27"/>
@@ -1483,6 +1618,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="28"/>
@@ -1506,6 +1646,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="29"/>
@@ -1529,6 +1674,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="30"/>
@@ -1551,6 +1701,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="31"/>
@@ -1573,6 +1728,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003F-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="32"/>
@@ -1595,6 +1755,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000041-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="33"/>
@@ -1617,6 +1782,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000043-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="34"/>
@@ -1639,6 +1809,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000045-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="35"/>
@@ -1661,6 +1836,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000047-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="36"/>
@@ -1684,6 +1864,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000049-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="37"/>
@@ -1707,6 +1892,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004B-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="38"/>
@@ -1730,6 +1920,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004D-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="39"/>
@@ -1753,6 +1948,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004F-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="40"/>
@@ -1776,6 +1976,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000051-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="41"/>
@@ -1799,6 +2004,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000053-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="42"/>
@@ -1821,6 +2031,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000055-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="43"/>
@@ -1843,6 +2058,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000057-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="44"/>
@@ -1865,6 +2085,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000059-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="45"/>
@@ -1887,6 +2112,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005B-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="46"/>
@@ -1909,6 +2139,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005D-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="47"/>
@@ -1931,6 +2166,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005F-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="48"/>
@@ -1954,6 +2194,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000061-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="49"/>
@@ -1977,6 +2222,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000063-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="50"/>
@@ -2000,6 +2250,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000065-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="51"/>
@@ -2023,6 +2278,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000067-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="52"/>
@@ -2046,6 +2306,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000069-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="53"/>
@@ -2069,6 +2334,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006B-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="54"/>
@@ -2089,6 +2359,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006D-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="55"/>
@@ -2109,6 +2384,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006F-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="56"/>
@@ -2129,6 +2409,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000071-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="57"/>
@@ -2149,6 +2434,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000073-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="58"/>
@@ -2169,6 +2459,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000075-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="59"/>
@@ -2189,6 +2484,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000077-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="60"/>
@@ -2211,6 +2511,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000079-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="61"/>
@@ -2233,6 +2538,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007B-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="62"/>
@@ -2255,6 +2565,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007D-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="63"/>
@@ -2277,6 +2592,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007F-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="64"/>
@@ -2299,6 +2619,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000081-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="65"/>
@@ -2321,6 +2646,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000083-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="66"/>
@@ -2344,6 +2674,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000085-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="67"/>
@@ -2367,6 +2702,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000087-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="68"/>
@@ -2390,6 +2730,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000089-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="69"/>
@@ -2413,6 +2758,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008B-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="70"/>
@@ -2436,6 +2786,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008D-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="71"/>
@@ -2459,6 +2814,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008F-06FD-4232-84D2-170E89DAE293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3752,10 +4112,10 @@
       <xdr:rowOff>142873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3784,7 +4144,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4079,16 +4439,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BT2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4306,7 +4666,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>538</v>
       </c>
